--- a/ParametricGraph/bench4x222.xlsx
+++ b/ParametricGraph/bench4x222.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -425,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="K1">
-        <v>721.48695110000006</v>
+        <v>724.70442361074402</v>
       </c>
       <c r="L1">
         <v>0</v>

--- a/ParametricGraph/bench4x222.xlsx
+++ b/ParametricGraph/bench4x222.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Параметрическая функция</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Прибор 2,5</t>
+  </si>
+  <si>
+    <t>Максимизация</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -421,6 +424,9 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
@@ -445,6 +451,9 @@
       <c r="B2">
         <f>2*11*10*2*11*10*10*10*10*10</f>
         <v>484000000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19">
